--- a/data/trans_bre/P1428-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P1428-Habitat-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>9.612343877824085</v>
+        <v>9.311990267793666</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.862238520516654</v>
+        <v>4.562885591324514</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4.574671174936196</v>
+        <v>4.59334289355499</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10.31711413329057</v>
+        <v>10.21676373035272</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>1.225882651221804</v>
+        <v>1.198426904602148</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6047032177432964</v>
+        <v>0.6344405632226879</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7589156442046033</v>
+        <v>0.7491557540444813</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>1.470743182089121</v>
+        <v>1.515705935888217</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>16.36317534206054</v>
+        <v>15.93619650914055</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>11.01829749821196</v>
+        <v>11.03299535196531</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.93751448039621</v>
+        <v>10.85717033190519</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15.44122739943748</v>
+        <v>15.51115323623059</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3.243659866527109</v>
+        <v>3.233591699435443</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2.30876271883034</v>
+        <v>2.416821159096392</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3.431684647291725</v>
+        <v>3.270845256043983</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>3.406321171414558</v>
+        <v>3.702995651145645</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>7.275070910582404</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8.858645864025652</v>
+        <v>8.858645864025654</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>1.246313139074833</v>
@@ -749,7 +749,7 @@
         <v>2.149003695455968</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>1.961405598733694</v>
+        <v>1.961405598733695</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>6.622620083156061</v>
+        <v>6.325435393504756</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.264255913245966</v>
+        <v>3.246564415683906</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5.12878642144152</v>
+        <v>5.081559175733591</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6.915951292242463</v>
+        <v>6.926272321777736</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7293117978685864</v>
+        <v>0.6764643014994286</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4303058250975137</v>
+        <v>0.421909545023343</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>1.125981235870592</v>
+        <v>1.145213748887835</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>1.275579740673731</v>
+        <v>1.1999323043234</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>12.39446391557524</v>
+        <v>12.66246677998769</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8.643837769246918</v>
+        <v>8.607127950472483</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9.441702696059687</v>
+        <v>9.765169750783102</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10.95443171747972</v>
+        <v>10.98169746269938</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.891863976849449</v>
+        <v>1.920010013263734</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.659057527927227</v>
+        <v>1.683034444779858</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>3.466510497265654</v>
+        <v>3.652680972275304</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>3.094160070217304</v>
+        <v>2.973232721989632</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>7.328947516347982</v>
+        <v>6.861125454399418</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>4.55662122457708</v>
+        <v>4.727447314537759</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.414472246325897</v>
+        <v>1.284542751806294</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.404947761674225</v>
+        <v>3.073048852064317</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8574866582684425</v>
+        <v>0.8443744372373025</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.840025923184483</v>
+        <v>0.9276862943216037</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2826760724527906</v>
+        <v>0.2433620373015466</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.5358706662542121</v>
+        <v>0.5041253965604722</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>14.65269021461506</v>
+        <v>14.05918267424805</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.28095160168725</v>
+        <v>10.32672512677501</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.317125589365104</v>
+        <v>6.261589862255841</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.189056688745207</v>
+        <v>7.818972495204752</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.60938767981627</v>
+        <v>2.481429887419792</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>3.839397091808592</v>
+        <v>3.962685697308209</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.185078008934309</v>
+        <v>2.28879952349289</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>2.173018026970922</v>
+        <v>2.058947016030201</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>6.458333283544654</v>
+        <v>6.704061082582139</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>5.719950049462206</v>
+        <v>5.672106146728831</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.405592516055329</v>
+        <v>2.600575166281026</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7.153602260489544</v>
+        <v>7.159524236935813</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6642346100722715</v>
+        <v>0.7436816604104367</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9840439236202897</v>
+        <v>0.9713792392990142</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5660875682276518</v>
+        <v>0.6402282473335585</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.9898185362717902</v>
+        <v>1.000856942185372</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>12.24651199444415</v>
+        <v>12.25052097945992</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>10.8530926434009</v>
+        <v>10.62205404410567</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.787378400782421</v>
+        <v>6.806767005270145</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>11.72866765053973</v>
+        <v>11.38892097266297</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.860952574025309</v>
+        <v>1.832040360106016</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.988182159194963</v>
+        <v>2.996025036175358</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.924023896505419</v>
+        <v>3.059240402281491</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.315970403587198</v>
+        <v>2.290389166704866</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>5.776275237147223</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9.129838719774845</v>
+        <v>9.129838719774847</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>1.445201286065596</v>
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>8.772134973954742</v>
+        <v>8.976453310273346</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>5.990632584752474</v>
+        <v>5.842422995522289</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4.490598253340332</v>
+        <v>4.575247910739743</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7.939005192946931</v>
+        <v>8.117545041242623</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>1.125304265752564</v>
+        <v>1.158725382549788</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>1.045369615688792</v>
+        <v>1.029710518851731</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>1.051545567635488</v>
+        <v>1.141516074670922</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>1.337029985637224</v>
+        <v>1.407224402902023</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.0654681137419</v>
+        <v>12.14806838705491</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.54997859447808</v>
+        <v>8.64588715312706</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.990422343654047</v>
+        <v>7.068619627509078</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10.28813136051099</v>
+        <v>10.26155060446607</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.845550677639348</v>
+        <v>1.872995192185159</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.876291753221577</v>
+        <v>1.874315947807858</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2.225884250571964</v>
+        <v>2.27040645986407</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2.148010878249176</v>
+        <v>2.205602959159916</v>
       </c>
     </row>
     <row r="19">
